--- a/2022/SAMSUNG/MAY/31.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/31.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -3374,6 +3374,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3401,12 +3425,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3417,24 +3435,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6445,67 +6445,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="403" t="s">
+      <c r="A1" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
-      <c r="N1" s="403"/>
-      <c r="O1" s="403"/>
-      <c r="P1" s="403"/>
-      <c r="Q1" s="403"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="411"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="412" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="404"/>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
-      <c r="K2" s="404"/>
-      <c r="L2" s="404"/>
-      <c r="M2" s="404"/>
-      <c r="N2" s="404"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="404"/>
-      <c r="Q2" s="404"/>
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="412"/>
+      <c r="K2" s="412"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="412"/>
+      <c r="N2" s="412"/>
+      <c r="O2" s="412"/>
+      <c r="P2" s="412"/>
+      <c r="Q2" s="412"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="413" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="406"/>
-      <c r="C3" s="406"/>
-      <c r="D3" s="406"/>
-      <c r="E3" s="406"/>
-      <c r="F3" s="406"/>
-      <c r="G3" s="406"/>
-      <c r="H3" s="406"/>
-      <c r="I3" s="406"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
-      <c r="N3" s="406"/>
-      <c r="O3" s="406"/>
-      <c r="P3" s="406"/>
-      <c r="Q3" s="407"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="414"/>
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="414"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="414"/>
+      <c r="P3" s="414"/>
+      <c r="Q3" s="415"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6514,52 +6514,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="408" t="s">
+      <c r="A4" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="410" t="s">
+      <c r="B4" s="418" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="412" t="s">
+      <c r="C4" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="412" t="s">
+      <c r="D4" s="403" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="412" t="s">
+      <c r="E4" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="414" t="s">
+      <c r="F4" s="420" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="412" t="s">
+      <c r="G4" s="403" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="412" t="s">
+      <c r="H4" s="403" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="412" t="s">
+      <c r="I4" s="403" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="412" t="s">
+      <c r="J4" s="403" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="412" t="s">
+      <c r="K4" s="403" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="412" t="s">
+      <c r="L4" s="403" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="412" t="s">
+      <c r="M4" s="403" t="s">
         <v>216</v>
       </c>
-      <c r="N4" s="412" t="s">
+      <c r="N4" s="403" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="422" t="s">
+      <c r="O4" s="409" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="416" t="s">
+      <c r="P4" s="422" t="s">
         <v>230</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6572,22 +6572,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="409"/>
-      <c r="B5" s="411"/>
-      <c r="C5" s="413"/>
-      <c r="D5" s="413"/>
-      <c r="E5" s="413"/>
-      <c r="F5" s="415"/>
-      <c r="G5" s="413"/>
-      <c r="H5" s="413"/>
-      <c r="I5" s="413"/>
-      <c r="J5" s="413"/>
-      <c r="K5" s="413"/>
-      <c r="L5" s="413"/>
-      <c r="M5" s="413"/>
-      <c r="N5" s="413"/>
-      <c r="O5" s="423"/>
-      <c r="P5" s="417"/>
+      <c r="A5" s="417"/>
+      <c r="B5" s="419"/>
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="404"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="404"/>
+      <c r="M5" s="404"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="410"/>
+      <c r="P5" s="423"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -7287,12 +7287,12 @@
         <v>4920</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="418" t="s">
+      <c r="S24" s="405" t="s">
         <v>258</v>
       </c>
-      <c r="T24" s="418"/>
-      <c r="U24" s="418"/>
-      <c r="V24" s="418"/>
+      <c r="T24" s="405"/>
+      <c r="U24" s="405"/>
+      <c r="V24" s="405"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -7413,11 +7413,11 @@
         <v>1020</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="419" t="s">
+      <c r="S27" s="406" t="s">
         <v>81</v>
       </c>
-      <c r="T27" s="420"/>
-      <c r="U27" s="421"/>
+      <c r="T27" s="407"/>
+      <c r="U27" s="408"/>
       <c r="V27" s="392">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
@@ -9740,11 +9740,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9761,6 +9756,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33968,8 +33968,8 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -37646,8 +37646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/2022/SAMSUNG/MAY/31.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/31.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\MAY\31.05.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\May\31.05.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3374,12 +3374,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3396,45 +3435,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6445,67 +6445,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="411" t="s">
+      <c r="A1" s="403" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="411"/>
-      <c r="C1" s="411"/>
-      <c r="D1" s="411"/>
-      <c r="E1" s="411"/>
-      <c r="F1" s="411"/>
-      <c r="G1" s="411"/>
-      <c r="H1" s="411"/>
-      <c r="I1" s="411"/>
-      <c r="J1" s="411"/>
-      <c r="K1" s="411"/>
-      <c r="L1" s="411"/>
-      <c r="M1" s="411"/>
-      <c r="N1" s="411"/>
-      <c r="O1" s="411"/>
-      <c r="P1" s="411"/>
-      <c r="Q1" s="411"/>
+      <c r="B1" s="403"/>
+      <c r="C1" s="403"/>
+      <c r="D1" s="403"/>
+      <c r="E1" s="403"/>
+      <c r="F1" s="403"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
+      <c r="M1" s="403"/>
+      <c r="N1" s="403"/>
+      <c r="O1" s="403"/>
+      <c r="P1" s="403"/>
+      <c r="Q1" s="403"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="412" t="s">
+      <c r="A2" s="404" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="412"/>
-      <c r="C2" s="412"/>
-      <c r="D2" s="412"/>
-      <c r="E2" s="412"/>
-      <c r="F2" s="412"/>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
-      <c r="J2" s="412"/>
-      <c r="K2" s="412"/>
-      <c r="L2" s="412"/>
-      <c r="M2" s="412"/>
-      <c r="N2" s="412"/>
-      <c r="O2" s="412"/>
-      <c r="P2" s="412"/>
-      <c r="Q2" s="412"/>
+      <c r="B2" s="404"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="404"/>
+      <c r="N2" s="404"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="404"/>
+      <c r="Q2" s="404"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="413" t="s">
+      <c r="A3" s="405" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="414"/>
-      <c r="G3" s="414"/>
-      <c r="H3" s="414"/>
-      <c r="I3" s="414"/>
-      <c r="J3" s="414"/>
-      <c r="K3" s="414"/>
-      <c r="L3" s="414"/>
-      <c r="M3" s="414"/>
-      <c r="N3" s="414"/>
-      <c r="O3" s="414"/>
-      <c r="P3" s="414"/>
-      <c r="Q3" s="415"/>
+      <c r="B3" s="406"/>
+      <c r="C3" s="406"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="406"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="406"/>
+      <c r="H3" s="406"/>
+      <c r="I3" s="406"/>
+      <c r="J3" s="406"/>
+      <c r="K3" s="406"/>
+      <c r="L3" s="406"/>
+      <c r="M3" s="406"/>
+      <c r="N3" s="406"/>
+      <c r="O3" s="406"/>
+      <c r="P3" s="406"/>
+      <c r="Q3" s="407"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6514,52 +6514,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="416" t="s">
+      <c r="A4" s="408" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="418" t="s">
+      <c r="B4" s="410" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="403" t="s">
+      <c r="C4" s="412" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="403" t="s">
+      <c r="D4" s="412" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="403" t="s">
+      <c r="E4" s="412" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="420" t="s">
+      <c r="F4" s="414" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="403" t="s">
+      <c r="G4" s="412" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="403" t="s">
+      <c r="H4" s="412" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="403" t="s">
+      <c r="I4" s="412" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="403" t="s">
+      <c r="J4" s="412" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="403" t="s">
+      <c r="K4" s="412" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="403" t="s">
+      <c r="L4" s="412" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="403" t="s">
+      <c r="M4" s="412" t="s">
         <v>216</v>
       </c>
-      <c r="N4" s="403" t="s">
+      <c r="N4" s="412" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="409" t="s">
+      <c r="O4" s="422" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="422" t="s">
+      <c r="P4" s="416" t="s">
         <v>230</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6572,22 +6572,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="417"/>
-      <c r="B5" s="419"/>
-      <c r="C5" s="404"/>
-      <c r="D5" s="404"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="404"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="404"/>
-      <c r="J5" s="404"/>
-      <c r="K5" s="404"/>
-      <c r="L5" s="404"/>
-      <c r="M5" s="404"/>
-      <c r="N5" s="404"/>
-      <c r="O5" s="410"/>
-      <c r="P5" s="423"/>
+      <c r="A5" s="409"/>
+      <c r="B5" s="411"/>
+      <c r="C5" s="413"/>
+      <c r="D5" s="413"/>
+      <c r="E5" s="413"/>
+      <c r="F5" s="415"/>
+      <c r="G5" s="413"/>
+      <c r="H5" s="413"/>
+      <c r="I5" s="413"/>
+      <c r="J5" s="413"/>
+      <c r="K5" s="413"/>
+      <c r="L5" s="413"/>
+      <c r="M5" s="413"/>
+      <c r="N5" s="413"/>
+      <c r="O5" s="423"/>
+      <c r="P5" s="417"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -7287,12 +7287,12 @@
         <v>4920</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="405" t="s">
+      <c r="S24" s="418" t="s">
         <v>258</v>
       </c>
-      <c r="T24" s="405"/>
-      <c r="U24" s="405"/>
-      <c r="V24" s="405"/>
+      <c r="T24" s="418"/>
+      <c r="U24" s="418"/>
+      <c r="V24" s="418"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -7413,11 +7413,11 @@
         <v>1020</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="406" t="s">
+      <c r="S27" s="419" t="s">
         <v>81</v>
       </c>
-      <c r="T27" s="407"/>
-      <c r="U27" s="408"/>
+      <c r="T27" s="420"/>
+      <c r="U27" s="421"/>
       <c r="V27" s="392">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
@@ -9740,6 +9740,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9756,11 +9761,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33969,7 +33969,7 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>

--- a/2022/SAMSUNG/MAY/31.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/31.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3374,6 +3374,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3401,12 +3425,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3417,24 +3435,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6423,9 +6423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6445,67 +6445,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="403" t="s">
+      <c r="A1" s="411" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="403"/>
-      <c r="C1" s="403"/>
-      <c r="D1" s="403"/>
-      <c r="E1" s="403"/>
-      <c r="F1" s="403"/>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
-      <c r="M1" s="403"/>
-      <c r="N1" s="403"/>
-      <c r="O1" s="403"/>
-      <c r="P1" s="403"/>
-      <c r="Q1" s="403"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="411"/>
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="411"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="412" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="404"/>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
-      <c r="K2" s="404"/>
-      <c r="L2" s="404"/>
-      <c r="M2" s="404"/>
-      <c r="N2" s="404"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="404"/>
-      <c r="Q2" s="404"/>
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="412"/>
+      <c r="K2" s="412"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="412"/>
+      <c r="N2" s="412"/>
+      <c r="O2" s="412"/>
+      <c r="P2" s="412"/>
+      <c r="Q2" s="412"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="413" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="406"/>
-      <c r="C3" s="406"/>
-      <c r="D3" s="406"/>
-      <c r="E3" s="406"/>
-      <c r="F3" s="406"/>
-      <c r="G3" s="406"/>
-      <c r="H3" s="406"/>
-      <c r="I3" s="406"/>
-      <c r="J3" s="406"/>
-      <c r="K3" s="406"/>
-      <c r="L3" s="406"/>
-      <c r="M3" s="406"/>
-      <c r="N3" s="406"/>
-      <c r="O3" s="406"/>
-      <c r="P3" s="406"/>
-      <c r="Q3" s="407"/>
+      <c r="B3" s="414"/>
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="414"/>
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="414"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="414"/>
+      <c r="P3" s="414"/>
+      <c r="Q3" s="415"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6514,52 +6514,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="408" t="s">
+      <c r="A4" s="416" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="410" t="s">
+      <c r="B4" s="418" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="412" t="s">
+      <c r="C4" s="403" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="412" t="s">
+      <c r="D4" s="403" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="412" t="s">
+      <c r="E4" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="414" t="s">
+      <c r="F4" s="420" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="412" t="s">
+      <c r="G4" s="403" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="412" t="s">
+      <c r="H4" s="403" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="412" t="s">
+      <c r="I4" s="403" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="412" t="s">
+      <c r="J4" s="403" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="412" t="s">
+      <c r="K4" s="403" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="412" t="s">
+      <c r="L4" s="403" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="412" t="s">
+      <c r="M4" s="403" t="s">
         <v>216</v>
       </c>
-      <c r="N4" s="412" t="s">
+      <c r="N4" s="403" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="422" t="s">
+      <c r="O4" s="409" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="416" t="s">
+      <c r="P4" s="422" t="s">
         <v>230</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6572,22 +6572,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="409"/>
-      <c r="B5" s="411"/>
-      <c r="C5" s="413"/>
-      <c r="D5" s="413"/>
-      <c r="E5" s="413"/>
-      <c r="F5" s="415"/>
-      <c r="G5" s="413"/>
-      <c r="H5" s="413"/>
-      <c r="I5" s="413"/>
-      <c r="J5" s="413"/>
-      <c r="K5" s="413"/>
-      <c r="L5" s="413"/>
-      <c r="M5" s="413"/>
-      <c r="N5" s="413"/>
-      <c r="O5" s="423"/>
-      <c r="P5" s="417"/>
+      <c r="A5" s="417"/>
+      <c r="B5" s="419"/>
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="421"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="404"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="404"/>
+      <c r="M5" s="404"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="410"/>
+      <c r="P5" s="423"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -7287,12 +7287,12 @@
         <v>4920</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="418" t="s">
+      <c r="S24" s="405" t="s">
         <v>258</v>
       </c>
-      <c r="T24" s="418"/>
-      <c r="U24" s="418"/>
-      <c r="V24" s="418"/>
+      <c r="T24" s="405"/>
+      <c r="U24" s="405"/>
+      <c r="V24" s="405"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -7413,11 +7413,11 @@
         <v>1020</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="419" t="s">
+      <c r="S27" s="406" t="s">
         <v>81</v>
       </c>
-      <c r="T27" s="420"/>
-      <c r="U27" s="421"/>
+      <c r="T27" s="407"/>
+      <c r="U27" s="408"/>
       <c r="V27" s="392">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
@@ -9740,11 +9740,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9761,6 +9756,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33968,7 +33968,7 @@
   </sheetPr>
   <dimension ref="A1:R217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
